--- a/WebRoot/static/template/import/customer.xlsx
+++ b/WebRoot/static/template/import/customer.xlsx
@@ -154,16 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金融</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人客户</t>
-  </si>
-  <si>
-    <t>直接客户</t>
-  </si>
-  <si>
     <t>一级</t>
   </si>
   <si>
@@ -175,12 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国有</t>
-  </si>
-  <si>
-    <t>农行</t>
-  </si>
-  <si>
     <t>北京农行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,15 +198,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身份证</t>
-  </si>
-  <si>
     <t>010-82147300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立开发</t>
+  </si>
+  <si>
+    <t>老客户</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>外资企业</t>
+  </si>
+  <si>
+    <t>医药、保养</t>
+  </si>
+  <si>
+    <t>士官证</t>
   </si>
 </sst>
 </file>
@@ -651,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -661,6 +660,7 @@
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.5" customWidth="1"/>
     <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
@@ -746,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AB1" t="s">
         <v>26</v>
@@ -772,7 +772,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>18600884689</v>
@@ -781,80 +781,103 @@
         <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M2">
         <v>2.3046787653456099E+17</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P2">
         <v>100000</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T2">
         <v>10000000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" t="s">
         <v>44</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AE2" t="s">
         <v>45</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>"客户介绍,独立开发,媒体宣传,合作伙伴,内部推荐,线索转换,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>"新客户,老客户,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+      <formula1>"一级,二级,三级,四级"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>"居民身份证,士官证,工作证,护照,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
+      <formula1>"农行银行,交通银行,建设银行,人民银行,邮政银行,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+      <formula1>"国有企业,外资企业,民营企业,集体企业,股份制企业,合资企业,独资企业,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>"建材,医药、保养,礼品、工艺品、饰品,印刷,服饰、服装,传媒,电工电器,电子元器件,五金工具,仪表、仪器,其它"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
